--- a/computational mathematics - department/6 sem/2 задача/2nd_task.xlsx
+++ b/computational mathematics - department/6 sem/2 задача/2nd_task.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\computational_mathematics\computational mathematics - department\6 sem\2 задача\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B40AFD-CCC3-40E2-B51F-CA2B8441702C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -46,36 +55,40 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF000000"/>
-      <name val="Roboto"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -85,26 +98,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor rgb="FFFCE5CD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
-    <border/>
+  <borders count="8">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -116,6 +127,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -124,76 +137,111 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
-      </right>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="11" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -383,673 +431,679 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="6" max="7" width="18.43"/>
+    <col min="6" max="7" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>0.0</v>
+    <row r="2" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>0</v>
       </c>
       <c r="B2" s="6">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0</v>
       </c>
       <c r="E2" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="6">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="6">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
         <v>0.1</v>
       </c>
       <c r="B3" s="6">
-        <v>1.0993</v>
+        <v>7.4069476600000003E-2</v>
       </c>
       <c r="C3" s="6">
-        <v>1.0993</v>
-      </c>
-      <c r="D3" s="5">
-        <v>4.026091E-6</v>
+        <v>7.40722568E-2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2.7800000000000001E-6</v>
       </c>
       <c r="E3" s="6">
-        <v>1.1319</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+        <v>0.11750351940000001</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="6">
         <v>0.1</v>
       </c>
       <c r="I3" s="6">
-        <v>1.0992586831</v>
+        <v>7.4069476600000003E-2</v>
       </c>
       <c r="J3" s="6">
-        <v>1.0992607881</v>
-      </c>
-      <c r="K3" s="9">
-        <v>2.105E-6</v>
+        <v>7.4070867999999998E-2</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1.39E-6</v>
       </c>
       <c r="L3" s="6">
-        <v>1.1319165881</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8">
+        <v>0.1175058339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>0.2</v>
       </c>
       <c r="B4" s="6">
-        <v>1.1943</v>
+        <v>0.14186686849999999</v>
       </c>
       <c r="C4" s="6">
-        <v>1.1943</v>
-      </c>
-      <c r="D4" s="5">
-        <v>8.067706E-6</v>
+        <v>0.1418724395</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5.57E-6</v>
       </c>
       <c r="E4" s="6">
-        <v>1.2526</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+        <v>0.2169633634</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="6">
         <v>0.2</v>
       </c>
       <c r="I4" s="6">
-        <v>1.1942747061</v>
+        <v>0.14186686849999999</v>
       </c>
       <c r="J4" s="6">
-        <v>1.1942789245</v>
-      </c>
-      <c r="K4" s="9">
-        <v>4.2184E-6</v>
+        <v>0.14186965639999999</v>
+      </c>
+      <c r="K4" s="7">
+        <v>2.79E-6</v>
       </c>
       <c r="L4" s="6">
-        <v>1.2526285767</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.21696780869999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>0.3</v>
       </c>
       <c r="B5" s="6">
-        <v>1.2854</v>
+        <v>0.20365525009999999</v>
       </c>
       <c r="C5" s="6">
-        <v>1.2854</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1.213996E-5</v>
+        <v>0.20366363379999999</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8.3799999999999994E-6</v>
       </c>
       <c r="E5" s="6">
-        <v>1.3618</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+        <v>0.30185124359999999</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
       <c r="H5" s="6">
         <v>0.3</v>
       </c>
       <c r="I5" s="6">
-        <v>1.2854026761</v>
+        <v>0.20365525009999999</v>
       </c>
       <c r="J5" s="6">
-        <v>1.2854090241</v>
-      </c>
-      <c r="K5" s="9">
-        <v>6.348E-6</v>
+        <v>0.2036594454</v>
+      </c>
+      <c r="K5" s="7">
+        <v>4.1999999999999996E-6</v>
       </c>
       <c r="L5" s="6">
-        <v>1.3617897824</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.30185767769999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>0.4</v>
       </c>
       <c r="B6" s="6">
-        <v>1.373</v>
+        <v>0.25967437929999998</v>
       </c>
       <c r="C6" s="6">
-        <v>1.373</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1.625811E-5</v>
+        <v>0.25968560819999997</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1.1199999999999999E-5</v>
       </c>
       <c r="E6" s="6">
-        <v>1.4599</v>
-      </c>
-      <c r="F6" s="11" t="s">
+        <v>0.3746756128</v>
+      </c>
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="6">
         <v>0.4</v>
       </c>
       <c r="I6" s="6">
-        <v>1.3729826898</v>
+        <v>0.25967437929999998</v>
       </c>
       <c r="J6" s="6">
-        <v>1.3729911916</v>
-      </c>
-      <c r="K6" s="9">
-        <v>8.5018E-6</v>
+        <v>0.25967999809999998</v>
+      </c>
+      <c r="K6" s="7">
+        <v>5.6200000000000004E-6</v>
       </c>
       <c r="L6" s="6">
-        <v>1.4599048768</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.37468392340000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>0.5</v>
       </c>
       <c r="B7" s="6">
-        <v>1.4588</v>
+        <v>0.31014162740000001</v>
       </c>
       <c r="C7" s="6">
-        <v>1.4588</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2.079474E-5</v>
+        <v>0.31015574530000001</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.4100000000000001E-5</v>
       </c>
       <c r="E7" s="6">
-        <v>1.5495</v>
-      </c>
-      <c r="F7" s="12">
-        <v>2.079474E-5</v>
-      </c>
-      <c r="G7" s="9">
-        <v>1.0019E-5</v>
+        <v>0.43729621889999998</v>
+      </c>
+      <c r="F7" s="13">
+        <v>4.2400000000000001E-5</v>
+      </c>
+      <c r="G7" s="13">
+        <v>2.12E-5</v>
       </c>
       <c r="H7" s="6">
         <v>0.5</v>
       </c>
       <c r="I7" s="6">
-        <v>1.4588399499</v>
+        <v>0.31014162740000001</v>
       </c>
       <c r="J7" s="6">
-        <v>1.4588299308</v>
-      </c>
-      <c r="K7" s="9">
-        <v>1.0019E-5</v>
+        <v>0.3101486913</v>
+      </c>
+      <c r="K7" s="7">
+        <v>7.0600000000000002E-6</v>
       </c>
       <c r="L7" s="6">
-        <v>1.5495084206</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.43730631469999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>0.6</v>
       </c>
       <c r="B8" s="6">
-        <v>1.5513</v>
+        <v>0.42340759480000001</v>
       </c>
       <c r="C8" s="6">
-        <v>1.5512</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1.66175E-5</v>
+        <v>0.42336516260000001</v>
+      </c>
+      <c r="D8" s="7">
+        <v>4.2400000000000001E-5</v>
       </c>
       <c r="E8" s="6">
-        <v>1.6386</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+        <v>0.56579935039999996</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="6">
         <v>0.6</v>
       </c>
       <c r="I8" s="6">
-        <v>1.5512522903</v>
+        <v>0.42340759480000001</v>
       </c>
       <c r="J8" s="6">
-        <v>1.5512442837</v>
-      </c>
-      <c r="K8" s="9">
-        <v>8.0066E-6</v>
+        <v>0.42338638579999999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>2.12E-5</v>
       </c>
       <c r="L8" s="6">
-        <v>1.6386238915</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.56584371369999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>0.7</v>
       </c>
       <c r="B9" s="6">
-        <v>1.6515</v>
+        <v>0.56060779090000001</v>
       </c>
       <c r="C9" s="6">
-        <v>1.6515</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1.245253E-5</v>
+        <v>0.56057637910000002</v>
+      </c>
+      <c r="D9" s="7">
+        <v>3.1399999999999998E-5</v>
       </c>
       <c r="E9" s="6">
-        <v>1.7277</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+        <v>0.69895986030000001</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="6">
         <v>0.7</v>
       </c>
       <c r="I9" s="6">
-        <v>1.651496704</v>
+        <v>0.56060779090000001</v>
       </c>
       <c r="J9" s="6">
-        <v>1.651490704</v>
-      </c>
-      <c r="K9" s="9">
-        <v>5.9999E-6</v>
+        <v>0.56059209229999996</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1.5699999999999999E-5</v>
       </c>
       <c r="L9" s="6">
-        <v>1.7277489946</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>0.69899786119999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>0.8</v>
       </c>
       <c r="B10" s="6">
-        <v>1.7596</v>
+        <v>0.7013718538</v>
       </c>
       <c r="C10" s="6">
-        <v>1.7596</v>
-      </c>
-      <c r="D10" s="5">
-        <v>8.296694E-6</v>
+        <v>0.70135110789999999</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2.0699999999999998E-5</v>
       </c>
       <c r="E10" s="6">
-        <v>1.8169</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+        <v>0.81431614429999999</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="6">
         <v>0.8</v>
       </c>
       <c r="I10" s="6">
-        <v>1.7596479962</v>
+        <v>0.7013718538</v>
       </c>
       <c r="J10" s="6">
-        <v>1.7596439986</v>
-      </c>
-      <c r="K10" s="9">
-        <v>3.9976E-6</v>
+        <v>0.70136148710000001</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1.04E-5</v>
       </c>
       <c r="L10" s="6">
-        <v>1.8169556819</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>0.81434888859999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>0.9</v>
       </c>
       <c r="B11" s="6">
-        <v>1.8758</v>
+        <v>0.84728736360000001</v>
       </c>
       <c r="C11" s="6">
-        <v>1.8758</v>
-      </c>
-      <c r="D11" s="5">
-        <v>4.146888E-6</v>
+        <v>0.84727704910000001</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1.03E-5</v>
       </c>
       <c r="E11" s="6">
-        <v>1.9071</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+        <v>0.9143068151</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="6">
         <v>0.9</v>
       </c>
       <c r="I11" s="6">
-        <v>1.8757868728</v>
+        <v>0.84728736360000001</v>
       </c>
       <c r="J11" s="6">
-        <v>1.8757848747</v>
-      </c>
-      <c r="K11" s="9">
-        <v>1.9981E-6</v>
+        <v>0.84728221029999995</v>
+      </c>
+      <c r="K11" s="7">
+        <v>5.1499999999999998E-6</v>
       </c>
       <c r="L11" s="6">
-        <v>1.9071213771</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>0.91433509739999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="6">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0.0</v>
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
       </c>
       <c r="E12" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="9"/>
       <c r="H12" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="6">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="6">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L12" s="6">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B14" s="6">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="C14" s="6">
-        <v>1.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E14" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>0.1</v>
       </c>
       <c r="B15" s="6">
-        <v>1.0992586831</v>
+        <v>7.4069476600000003E-2</v>
       </c>
       <c r="C15" s="6">
-        <v>1.0992598275</v>
-      </c>
-      <c r="D15" s="9">
-        <v>1.1444E-6</v>
+        <v>7.4070172899999995E-2</v>
+      </c>
+      <c r="D15" s="7">
+        <v>6.9599999999999999E-7</v>
       </c>
       <c r="E15" s="6">
-        <v>1.1319178602</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16">
+        <v>0.1175069913</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>0.2</v>
       </c>
       <c r="B16" s="6">
-        <v>1.1942747061</v>
+        <v>0.14186686849999999</v>
       </c>
       <c r="C16" s="6">
-        <v>1.1942769997</v>
-      </c>
-      <c r="D16" s="9">
-        <v>2.2936E-6</v>
+        <v>0.14186826359999999</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1.3999999999999999E-6</v>
       </c>
       <c r="E16" s="6">
-        <v>1.2526310977</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17">
+        <v>0.21697003140000001</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>0.3</v>
       </c>
       <c r="B17" s="6">
-        <v>1.2854026761</v>
+        <v>0.20365525009999999</v>
       </c>
       <c r="C17" s="6">
-        <v>1.2854061281</v>
-      </c>
-      <c r="D17" s="9">
-        <v>3.4519E-6</v>
+        <v>0.20365734939999999</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2.0999999999999998E-6</v>
       </c>
       <c r="E17" s="6">
-        <v>1.3617935106</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18">
+        <v>0.30186089500000002</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>0.4</v>
       </c>
       <c r="B18" s="6">
-        <v>1.3729826898</v>
+        <v>0.25967437929999998</v>
       </c>
       <c r="C18" s="6">
-        <v>1.3729873135</v>
-      </c>
-      <c r="D18" s="9">
-        <v>4.6237E-6</v>
+        <v>0.2596771907</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2.8100000000000002E-6</v>
       </c>
       <c r="E18" s="6">
-        <v>1.4599097581</v>
-      </c>
-      <c r="F18" s="11" t="s">
+        <v>0.3746880789</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>0.5</v>
       </c>
       <c r="B19" s="6">
-        <v>1.4588399499</v>
+        <v>0.31014162740000001</v>
       </c>
       <c r="C19" s="6">
-        <v>1.4588353184</v>
-      </c>
-      <c r="D19" s="9">
-        <v>4.6315E-6</v>
+        <v>0.3101451617</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3.5300000000000001E-6</v>
       </c>
       <c r="E19" s="6">
-        <v>1.549524358</v>
-      </c>
-      <c r="F19" s="9">
-        <v>4.6315E-6</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>0.43731136300000001</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1.06E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>0.6</v>
       </c>
       <c r="B20" s="6">
-        <v>1.5512522903</v>
+        <v>0.42340759480000001</v>
       </c>
       <c r="C20" s="6">
-        <v>1.551248589</v>
-      </c>
-      <c r="D20" s="9">
-        <v>3.7014E-6</v>
+        <v>0.42339699339999998</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.06E-5</v>
       </c>
       <c r="E20" s="6">
-        <v>1.6386393755</v>
-      </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21">
+        <v>0.56586589499999995</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>0.7</v>
       </c>
       <c r="B21" s="6">
-        <v>1.651496704</v>
+        <v>0.56060779090000001</v>
       </c>
       <c r="C21" s="6">
-        <v>1.6514939301</v>
-      </c>
-      <c r="D21" s="9">
-        <v>2.7738E-6</v>
+        <v>0.56059994489999998</v>
+      </c>
+      <c r="D21" s="7">
+        <v>7.8499999999999994E-6</v>
       </c>
       <c r="E21" s="6">
-        <v>1.7277640851</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22">
+        <v>0.69901686149999998</v>
+      </c>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>0.8</v>
       </c>
       <c r="B22" s="6">
-        <v>1.7596479962</v>
+        <v>0.7013718538</v>
       </c>
       <c r="C22" s="6">
-        <v>1.759646148</v>
-      </c>
-      <c r="D22" s="9">
-        <v>1.8482E-6</v>
+        <v>0.70136667340000003</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5.1800000000000004E-6</v>
       </c>
       <c r="E22" s="6">
-        <v>1.8169704446</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23">
+        <v>0.81436526060000003</v>
+      </c>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>0.9</v>
       </c>
       <c r="B23" s="6">
-        <v>1.8757868728</v>
+        <v>0.84728736360000001</v>
       </c>
       <c r="C23" s="6">
-        <v>1.875785949</v>
-      </c>
-      <c r="D23" s="9">
-        <v>9.239E-7</v>
+        <v>0.84728478890000003</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2.57E-6</v>
       </c>
       <c r="E23" s="6">
-        <v>1.907135883</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24">
+        <v>0.91434923869999996</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B24" s="6">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="6">
-        <v>2.0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E24" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="F24" s="10"/>
+        <v>1</v>
+      </c>
+      <c r="F24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="F20:F24"/>
     <mergeCell ref="F1:F5"/>
     <mergeCell ref="F8:F12"/>
     <mergeCell ref="G1:G5"/>
     <mergeCell ref="G8:G12"/>
     <mergeCell ref="F13:F17"/>
-    <mergeCell ref="F20:F24"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>